--- a/ReferenceNdevArt/Monarch Sun/1024x768/Coordinates_1024x768.xlsx
+++ b/ReferenceNdevArt/Monarch Sun/1024x768/Coordinates_1024x768.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Gap between reels</t>
   </si>
@@ -42,14 +42,55 @@
     <t>Symbol on the top of 1 reel</t>
   </si>
   <si>
-    <t>Symbol on the top of 2 reel</t>
-  </si>
-  <si>
     <t>1024X768</t>
   </si>
   <si>
-    <t xml:space="preserve">Lion Storm  
+    <t>3,px</t>
+  </si>
+  <si>
+    <t>70.0 px,637.0 px</t>
+  </si>
+  <si>
+    <t>24.0 px,39.0 px</t>
+  </si>
+  <si>
+    <t>416.0 px,113.0 px</t>
+  </si>
+  <si>
+    <t>Symbol center of  the top of 2 reel</t>
+  </si>
+  <si>
+    <t>418.0 px,-1.0 px</t>
+  </si>
+  <si>
+    <t>430.0 px,684.0 px</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Monarch Sun</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
+    </r>
+  </si>
+  <si>
+    <t>Monarch Sun</t>
   </si>
 </sst>
 </file>
@@ -405,27 +446,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C8"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1">
+    <row r="1" spans="1:4" s="2" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:3" s="2" customFormat="1">
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -436,59 +481,71 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
